--- a/tspi/plantillas/forma-logt.xlsx
+++ b/tspi/plantillas/forma-logt.xlsx
@@ -168,7 +168,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0"/>
@@ -179,19 +179,25 @@
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="166" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="167" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="4" numFmtId="165" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="4" numFmtId="166" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="4" numFmtId="166" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="2" fontId="5" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="2" fontId="5" numFmtId="166" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="2" fontId="5" numFmtId="167" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="2" fontId="5" numFmtId="164" xfId="0">
@@ -220,18 +226,18 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D13" activeCellId="0" pane="topLeft" sqref="D13"/>
+      <selection activeCell="G10" activeCellId="0" pane="topLeft" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.6313725490196"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="11.6313725490196"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="16.2156862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="10.6549019607843"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="11.6941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="11.6313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="45.8196078431373"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="4" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="16.2980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="10.7098039215686"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="11.7490196078431"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="46.0549019607843"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="4" width="11.6941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="1">
@@ -240,7 +246,6 @@
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
-      <c r="D1" s="4"/>
       <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
@@ -253,12 +258,11 @@
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="4"/>
       <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
       <c r="A3" s="6" t="s">
@@ -266,40 +270,35 @@
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="4"/>
       <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="16" t="s">
         <v>11</v>
       </c>
     </row>
